--- a/docs/NBA 2K/Historical Seasons/1953-54 Ratings.xlsx
+++ b/docs/NBA 2K/Historical Seasons/1953-54 Ratings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30af24b3fe5d560e/Documentos/André/Games/Documents/Games/NBA 2K/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30af24b3fe5d560e/Documentos/André/Games/Documents/Sports Games/NBA 2K/Historical Seasons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19991" documentId="13_ncr:1_{8B08D970-4979-4C7B-975B-E3207E6A3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4317E01-F13D-4265-89EB-48C806434867}"/>
+  <xr:revisionPtr revIDLastSave="20001" documentId="13_ncr:1_{8B08D970-4979-4C7B-975B-E3207E6A3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C207D73-283E-440B-9A90-4C10F6246F36}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="1152" windowWidth="22896" windowHeight="9456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="372" windowWidth="22884" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="143">
   <si>
     <t>Player</t>
   </si>
@@ -45,30 +45,9 @@
     <t>Country</t>
   </si>
   <si>
-    <t>League</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
-    <t>NBA Draft Year</t>
-  </si>
-  <si>
-    <t>NBA Draft Pick</t>
-  </si>
-  <si>
-    <t>NCAA Team</t>
-  </si>
-  <si>
-    <t>NCAA Career</t>
-  </si>
-  <si>
-    <t>NCAA Team2</t>
-  </si>
-  <si>
-    <t>NCAA Career2</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -76,6 +55,417 @@
   </si>
   <si>
     <t>Number Players</t>
+  </si>
+  <si>
+    <t>Don Ackerman</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>NYK</t>
+  </si>
+  <si>
+    <t>Don Asmonga</t>
+  </si>
+  <si>
+    <t>BLB</t>
+  </si>
+  <si>
+    <t>Jim Baechtold</t>
+  </si>
+  <si>
+    <t>F-G</t>
+  </si>
+  <si>
+    <t>Don Barksdale</t>
+  </si>
+  <si>
+    <t>F-C</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>Leo Barnhorst</t>
+  </si>
+  <si>
+    <t>BLB,FTW</t>
+  </si>
+  <si>
+    <t>Ernie Barrett</t>
+  </si>
+  <si>
+    <t>G-F</t>
+  </si>
+  <si>
+    <t>Ernie Beck</t>
+  </si>
+  <si>
+    <t>PHW</t>
+  </si>
+  <si>
+    <t>Irv Bemoras</t>
+  </si>
+  <si>
+    <t>MLH</t>
+  </si>
+  <si>
+    <t>Bill Bolger</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Vince Boryla</t>
+  </si>
+  <si>
+    <t>Bob Brannum</t>
+  </si>
+  <si>
+    <t>Carl Braun</t>
+  </si>
+  <si>
+    <t>Frankie Brian</t>
+  </si>
+  <si>
+    <t>FTW</t>
+  </si>
+  <si>
+    <t>Bill Calhoun</t>
+  </si>
+  <si>
+    <t>Cal Christensen</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>Nat Clifton</t>
+  </si>
+  <si>
+    <t>C-F</t>
+  </si>
+  <si>
+    <t>Jack Coleman</t>
+  </si>
+  <si>
+    <t>Chuck Cooper</t>
+  </si>
+  <si>
+    <t>Bob Cousy</t>
+  </si>
+  <si>
+    <t>Bob Davies</t>
+  </si>
+  <si>
+    <t>Walt Davis</t>
+  </si>
+  <si>
+    <t>Bob Donham</t>
+  </si>
+  <si>
+    <t>Gene Dyker</t>
+  </si>
+  <si>
+    <t>Ed Earle</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>Ray Felix</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Danny Finn</t>
+  </si>
+  <si>
+    <t>Larry Foust</t>
+  </si>
+  <si>
+    <t>Jim Fritsche</t>
+  </si>
+  <si>
+    <t>BLB,MNL</t>
+  </si>
+  <si>
+    <t>Joe Fulks</t>
+  </si>
+  <si>
+    <t>Bill Gabor</t>
+  </si>
+  <si>
+    <t>Harry Gallatin</t>
+  </si>
+  <si>
+    <t>Jack George</t>
+  </si>
+  <si>
+    <t>Bato Govedarica</t>
+  </si>
+  <si>
+    <t>Joe Graboski</t>
+  </si>
+  <si>
+    <t>Norm Grekin</t>
+  </si>
+  <si>
+    <t>Alex Hannum</t>
+  </si>
+  <si>
+    <t>Rollen Hans</t>
+  </si>
+  <si>
+    <t>Bob Harris</t>
+  </si>
+  <si>
+    <t>Bob Harrison</t>
+  </si>
+  <si>
+    <t>MLH,MNL</t>
+  </si>
+  <si>
+    <t>Lew Hitch</t>
+  </si>
+  <si>
+    <t>Paul Hoffman</t>
+  </si>
+  <si>
+    <t>Jim Holstein</t>
+  </si>
+  <si>
+    <t>MNL</t>
+  </si>
+  <si>
+    <t>Red Holzman</t>
+  </si>
+  <si>
+    <t>Bob Houbregs</t>
+  </si>
+  <si>
+    <t>BLB,MLH</t>
+  </si>
+  <si>
+    <t>Mel Hutchins</t>
+  </si>
+  <si>
+    <t>Neil Johnston</t>
+  </si>
+  <si>
+    <t>Billy Kenville</t>
+  </si>
+  <si>
+    <t>George King</t>
+  </si>
+  <si>
+    <t>Dick Knostman</t>
+  </si>
+  <si>
+    <t>Bob Lavoy</t>
+  </si>
+  <si>
+    <t>MLH,SYR</t>
+  </si>
+  <si>
+    <t>Earl Lloyd</t>
+  </si>
+  <si>
+    <t>Don Lofgran</t>
+  </si>
+  <si>
+    <t>Clyde Lovellette</t>
+  </si>
+  <si>
+    <t>Jim Luisi</t>
+  </si>
+  <si>
+    <t>Ed Macauley</t>
+  </si>
+  <si>
+    <t>Mo Mahoney</t>
+  </si>
+  <si>
+    <t>Slater Martin</t>
+  </si>
+  <si>
+    <t>Al Masino</t>
+  </si>
+  <si>
+    <t>ROC,SYR</t>
+  </si>
+  <si>
+    <t>Al McGuire</t>
+  </si>
+  <si>
+    <t>Dick McGuire</t>
+  </si>
+  <si>
+    <t>Jack McMahon</t>
+  </si>
+  <si>
+    <t>Monk Meineke</t>
+  </si>
+  <si>
+    <t>Ed Mikan</t>
+  </si>
+  <si>
+    <t>George Mikan</t>
+  </si>
+  <si>
+    <t>Vern Mikkelsen</t>
+  </si>
+  <si>
+    <t>Eddie Miller</t>
+  </si>
+  <si>
+    <t>Jack Molinas</t>
+  </si>
+  <si>
+    <t>Ken Murray</t>
+  </si>
+  <si>
+    <t>Jim Neal</t>
+  </si>
+  <si>
+    <t>Jack Nichols</t>
+  </si>
+  <si>
+    <t>BOS,MLH</t>
+  </si>
+  <si>
+    <t>Paul Nolen</t>
+  </si>
+  <si>
+    <t>Mike Novak</t>
+  </si>
+  <si>
+    <t>Wally Osterkorn</t>
+  </si>
+  <si>
+    <t>Bob Peterson</t>
+  </si>
+  <si>
+    <t>Jim Phelan</t>
+  </si>
+  <si>
+    <t>Andy Phillip</t>
+  </si>
+  <si>
+    <t>Jim Pollard</t>
+  </si>
+  <si>
+    <t>George Ratkovicz</t>
+  </si>
+  <si>
+    <t>Connie Rea</t>
+  </si>
+  <si>
+    <t>Frank Reddout</t>
+  </si>
+  <si>
+    <t>Arnie Risen</t>
+  </si>
+  <si>
+    <t>Al Roges</t>
+  </si>
+  <si>
+    <t>Pep Saul</t>
+  </si>
+  <si>
+    <t>Fred Schaus</t>
+  </si>
+  <si>
+    <t>FTW,NYK</t>
+  </si>
+  <si>
+    <t>Dolph Schayes</t>
+  </si>
+  <si>
+    <t>Dick Schnittker</t>
+  </si>
+  <si>
+    <t>Fred Scolari</t>
+  </si>
+  <si>
+    <t>George Senesky</t>
+  </si>
+  <si>
+    <t>Paul Seymour</t>
+  </si>
+  <si>
+    <t>Chuck Share</t>
+  </si>
+  <si>
+    <t>FTW,MLH</t>
+  </si>
+  <si>
+    <t>Bill Sharman</t>
+  </si>
+  <si>
+    <t>Connie Simmons</t>
+  </si>
+  <si>
+    <t>Zeke Sinicola</t>
+  </si>
+  <si>
+    <t>Whitey Skoog</t>
+  </si>
+  <si>
+    <t>Ed Smith</t>
+  </si>
+  <si>
+    <t>Joe Smyth</t>
+  </si>
+  <si>
+    <t>BLB,NYK</t>
+  </si>
+  <si>
+    <t>Odie Spears</t>
+  </si>
+  <si>
+    <t>Don Sunderlage</t>
+  </si>
+  <si>
+    <t>Dick Surhoff</t>
+  </si>
+  <si>
+    <t>Norm Swanson</t>
+  </si>
+  <si>
+    <t>Bill Tosheff</t>
+  </si>
+  <si>
+    <t>Hal Uplinger</t>
+  </si>
+  <si>
+    <t>Ernie Vandeweghe</t>
+  </si>
+  <si>
+    <t>Paul Walther</t>
+  </si>
+  <si>
+    <t>Isaac Walthour</t>
+  </si>
+  <si>
+    <t>Bobby Wanzer</t>
+  </si>
+  <si>
+    <t>Mark Workman</t>
+  </si>
+  <si>
+    <t>George Yardley</t>
+  </si>
+  <si>
+    <t>Max Zaslofsky</t>
+  </si>
+  <si>
+    <t>BLB,FTW,MLH</t>
+  </si>
+  <si>
+    <t>Zeke Zawoluk</t>
   </si>
 </sst>
 </file>
@@ -140,7 +530,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -229,72 +634,6 @@
     <dxf>
       <font>
         <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
       </font>
     </dxf>
     <dxf>
@@ -321,36 +660,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}" name="Tabela1" displayName="Tabela1" ref="A1:K2" insertRow="1" totalsRowShown="0" dataDxfId="16">
-  <autoFilter ref="A1:K2" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K2">
-    <sortCondition descending="1" ref="C1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}" name="Tabela1" displayName="Tabela1" ref="A1:E111" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:E111" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E111">
+    <sortCondition ref="A1:A111"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{45DD2C62-7C3E-42FD-99E1-1C11CC08F3BC}" name="Player" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{5ED8160B-1FE1-4B36-9C43-B84B769D915A}" name="Country" dataDxfId="14"/>
-    <tableColumn id="94" xr3:uid="{811BEBA5-05F0-43E2-ACD7-30037F742D95}" name="Rating" dataDxfId="13"/>
-    <tableColumn id="95" xr3:uid="{F0C178E4-4090-42AF-B2B8-45EB32788498}" name="Position" dataDxfId="12"/>
-    <tableColumn id="96" xr3:uid="{D7710C5A-8FC6-4CD2-981E-D7714AC8B0B1}" name="Team" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{42F4E4AE-9E2F-42E6-A624-B0DDED1BA144}" name="NBA Draft Pick" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{C5ADDAAD-AA8C-478E-801E-F5C2E76F198B}" name="NBA Draft Year" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{495F089D-8EC3-4517-92B9-01EEBF55AC2A}" name="NCAA Team" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{F640226B-E5C6-4B9C-B44D-F660E0941E5A}" name="NCAA Career" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{093F9130-C566-4A0F-9529-0C1A81A8141E}" name="NCAA Team2" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{053888DD-68A0-4B8B-BFCD-C8C9C7316E0F}" name="NCAA Career2" dataDxfId="5"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{45DD2C62-7C3E-42FD-99E1-1C11CC08F3BC}" name="Player" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{5ED8160B-1FE1-4B36-9C43-B84B769D915A}" name="Country" dataDxfId="8"/>
+    <tableColumn id="94" xr3:uid="{811BEBA5-05F0-43E2-ACD7-30037F742D95}" name="Rating" dataDxfId="7"/>
+    <tableColumn id="95" xr3:uid="{F0C178E4-4090-42AF-B2B8-45EB32788498}" name="Position" dataDxfId="1"/>
+    <tableColumn id="96" xr3:uid="{D7710C5A-8FC6-4CD2-981E-D7714AC8B0B1}" name="Team" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}" name="Tabela2" displayName="Tabela2" ref="A1:D2" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:D2" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3C0468BE-8281-499F-8CD2-E83026C0E02C}" name="Team" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CAD836CE-C9A0-4EB0-BB8B-1EF53179D773}" name="Country" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{EDB7CB8F-EFE3-4832-BE68-80DE63CAED30}" name="League" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D459AB18-454B-4998-9648-6D7558734687}" name="Number Players" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}" name="Tabela2" displayName="Tabela2" ref="A1:C2" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:C2" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3C0468BE-8281-499F-8CD2-E83026C0E02C}" name="Team" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{CAD836CE-C9A0-4EB0-BB8B-1EF53179D773}" name="Country" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D459AB18-454B-4998-9648-6D7558734687}" name="Number Players" dataDxfId="3">
       <calculatedColumnFormula>COUNTIF(Tabela1[Team],Tabela2[[#This Row],[Team]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -621,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,15 +966,9 @@
     <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,45 +976,1444 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -702,7 +2427,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91B5C15-9235-4990-AD10-9915F8885DD9}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -712,29 +2437,24 @@
   <cols>
     <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="C2" s="2">
         <f>COUNTIF(Tabela1[Team],Tabela2[[#This Row],[Team]])</f>
         <v>0</v>
       </c>
